--- a/文档清单.xlsx
+++ b/文档清单.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2130" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="文件夹" sheetId="1" r:id="rId1"/>
+    <sheet name="具体任务" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -32,10 +33,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>temp_demannds_for_track</t>
-  </si>
-  <si>
-    <t>课前课后回访每日提供</t>
+    <t>临时任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp_demannds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,12 +389,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -415,10 +419,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -426,4 +430,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>